--- a/testapk/source/1.xlsx
+++ b/testapk/source/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,30 +32,7 @@
     <t>下载地址</t>
   </si>
   <si>
-    <r>
-      <t>* APP包名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（不可修改）</t>
-    </r>
+    <t>包名</t>
   </si>
   <si>
     <t>* APP名称</t>
@@ -73,94 +50,364 @@
     <t>不需要登录</t>
   </si>
   <si>
-    <t>http://g1.res.meizu.com/source/4752/b61c5ac2cd954774a0a953e7c92c6ab0?auth_key=1663087833-0-0-6a0b3394e904fd0b3fbdfb0b1577bf0b</t>
-  </si>
-  <si>
-    <t>com.qp95qp4.cocosandroid</t>
-  </si>
-  <si>
-    <t>船信通</t>
-  </si>
-  <si>
-    <t>http://hot.shouji.360tpcdn.com/150918/69de2384b93ef057208c94fe044f646e/com.youyi.rexiang_1.apk</t>
-  </si>
-  <si>
-    <t>com.youyi.rexiang</t>
-  </si>
-  <si>
-    <t>热翔</t>
-  </si>
-  <si>
-    <t>https://android-apps.pp.cn/fs08/2016/04/26/11/2_e5bcc49a1c0ddde1d8912afc3f35693c.apk</t>
-  </si>
-  <si>
-    <t>com.qf365.palmcity00026</t>
-  </si>
-  <si>
-    <t>掌上南雄</t>
-  </si>
-  <si>
-    <t>https://ftp-new-apk.pconline.com.cn/pub/download/201708/pconline1502450383121.apk?md5=xG2qZNTPT6m-_89iCqnjxQ&amp;expires=1601813814</t>
-  </si>
-  <si>
-    <t>com.squall.thpv</t>
-  </si>
-  <si>
-    <t>乐宝网</t>
-  </si>
-  <si>
-    <t>http://apk.wsdl.vivo.com.cn/appstore/capture/soft/20180929/2018092923381954658125557.apk</t>
-  </si>
-  <si>
-    <t>com.yxhjandroid.sydney</t>
-  </si>
-  <si>
-    <t>悉尼租房</t>
-  </si>
-  <si>
-    <t>http://hot.shouji.360tpcdn.com/131216/6c6f560cf83cd38759297c5d15bcbd78/com.qf365.Srp_srp00036_3.apk</t>
-  </si>
-  <si>
-    <t>com.qf365.Srp_srp00036</t>
-  </si>
-  <si>
-    <t>华东钢材网</t>
-  </si>
-  <si>
-    <t>https://az.runjiapp.com/477593.apk</t>
-  </si>
-  <si>
-    <t>com.skymoons.seer.uc</t>
-  </si>
-  <si>
-    <t>赛尔号超级英雄九游版</t>
-  </si>
-  <si>
-    <t>http://imtt.dd.qq.com/16891/apk/336C0803F21AE9CC9174E3EBD2140FFF.apk?fsname=com.soundyl.rentbattery.user_1.5_150.apk&amp;csr=264f</t>
-  </si>
-  <si>
-    <t>com.soundyl.rentbattery.user</t>
-  </si>
-  <si>
-    <t>青松佣电</t>
-  </si>
-  <si>
-    <t>http://storedl1.nearme.com.cn/apk/202112/07/23fe2cf3a9a1ef493e8247eae4dbd87a.apk</t>
-  </si>
-  <si>
-    <t>com.chelizi.clz</t>
-  </si>
-  <si>
-    <t>车厘籽买卖车</t>
-  </si>
-  <si>
-    <t>https://ftp-new-apk.pconline.com.cn/pub/download/201809/pconline1535283335666.apk?md5=Pxcw7niRPlThAa-ky5731Q&amp;expires=1672666008</t>
-  </si>
-  <si>
-    <t>cn.net.rkmopvjs.gnkrku.psgrnrjg</t>
-  </si>
-  <si>
-    <t>柏林少女相机贴纸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://storedl1.nearme.com.cn/apk/201710/31/4777d164c36043873723b9862616c15b.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>io.dcloud.H5EF980F4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>友爱家园</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://apk.wsdl.vivo.com.cn/appstore/capture/soft/20200501/20200501022820274295081170.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.ceweb.walkinggo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Walkinggo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://ftp-new-apk.pconline.com.cn/pub/download/201709/pconline1504594054183.apk?md5=eHnM1qVGqMPUmLX7RicpxA&amp;expires=1672665284</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.fx678.yiming.finace</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>易金银</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://hot.shouji.360tpcdn.com/140812/eecf145a48e045c38c14cd71a4bd2795/com.zgwanying.wlhyview_2.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.zgwanying.wlhyview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物流货运</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://ftp-new-apk.pconline.com.cn/pub/download/201807/pconline1531035061842.apk?md5=3797ThcQz0DuLQTaMN757w&amp;expires=1672665879</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.bin.jjkxqldy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机甲狂袭-枪林弹雨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://storedl1.nearme.com.cn/apk/202103/04/bef3871d4d8bc611fc9a8d331f396101.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.smartcity.properties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嘉瑞社区宝</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://hot.shouji.360tpcdn.com/150410/af950286728889786e7647d219c73351/com.moon.electromusicsk_2.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.moon.electromusicsk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Electronic Top Music</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://hot.shouji.360tpcdn.com/161215/d9741bb92570f595b6d86de60561786e/com.zzy.tjqnzyxy_9.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.zzy.tjqnzyxy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天津青年学院即时通</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待填写</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.vlife.wallpaper.res.number693</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妖娆的月亮LWP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://android-apps.pp.cn/fs08/2016/04/26/3/2_929099191b0a120af5362e1ff26b95d3.apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.qf365.MobileArk00076</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中华电信</t>
+    </r>
   </si>
   <si>
     <t>https://ftp-new-apk.pconline.com.cn/pub/download/201010/pconline1482683508488.apk?md5=_LcieUpRpVx7MdwBvk93KQ&amp;expires=1672664640</t>
@@ -839,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,17 +1099,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1395,17 +1645,18 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.2019230769231" customWidth="1"/>
-    <col min="2" max="2" width="12.4903846153846" customWidth="1"/>
+    <col min="1" max="1" width="28.2" customWidth="1"/>
+    <col min="2" max="2" width="12.4916666666667" customWidth="1"/>
     <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,237 +1672,237 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="17" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="17" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="34" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="17" spans="1:8">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="34" spans="1:8">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="34" spans="1:8">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9"/>
     </row>
-    <row r="8" ht="68" spans="1:8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="34" spans="1:8">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="34" spans="1:8">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="51" spans="1:8">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9"/>
     </row>
-    <row r="12" ht="34" spans="1:8">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9"/>
     </row>
-    <row r="13" ht="34" spans="1:8">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9"/>
     </row>
-    <row r="14" ht="17" spans="1:8">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="9"/>
     </row>
-    <row r="15" ht="34" spans="1:8">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testapk/source/1.xlsx
+++ b/testapk/source/1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>下载地址</t>
   </si>
@@ -58,7 +58,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://storedl1.nearme.com.cn/apk/201710/31/4777d164c36043873723b9862616c15b.apk</t>
+      <t>https://android-apps.pp.cn/fs08/2018/03/01/9/110_ec80494dcbb96e5bf6412aa2331d0590.apk</t>
     </r>
   </si>
   <si>
@@ -70,7 +70,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>io.dcloud.H5EF980F4</t>
+      <t>com.googokmchi.zhixin</t>
     </r>
   </si>
   <si>
@@ -82,7 +82,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>友爱家园</t>
+      <t>职信兼职</t>
     </r>
   </si>
   <si>
@@ -94,7 +94,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://apk.wsdl.vivo.com.cn/appstore/capture/soft/20200501/20200501022820274295081170.apk</t>
+      <t>https://android-apps.pp.cn/fs01/2015/02/01/7/112_92c9d0a489f1e49dacc9305536e59ca1.apk</t>
     </r>
   </si>
   <si>
@@ -106,7 +106,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.ceweb.walkinggo</t>
+      <t>com.qf365.JujinShip00102</t>
     </r>
   </si>
   <si>
@@ -118,7 +118,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Walkinggo</t>
+      <t>炫酷数码</t>
     </r>
   </si>
   <si>
@@ -130,7 +130,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://ftp-new-apk.pconline.com.cn/pub/download/201709/pconline1504594054183.apk?md5=eHnM1qVGqMPUmLX7RicpxA&amp;expires=1672665284</t>
+      <t>https://android-apps.pp.cn/fs08/2016/04/26/11/110_1c314a4d67b207f2732f4f74477379e1.apk</t>
     </r>
   </si>
   <si>
@@ -142,7 +142,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.fx678.yiming.finace</t>
+      <t>com.dns.raindrop3_package1057</t>
     </r>
   </si>
   <si>
@@ -154,7 +154,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>易金银</t>
+      <t>河北餐饮娱乐行业平台</t>
     </r>
   </si>
   <si>
@@ -166,7 +166,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://hot.shouji.360tpcdn.com/140812/eecf145a48e045c38c14cd71a4bd2795/com.zgwanying.wlhyview_2.apk</t>
+      <t>https://android-apps.pp.cn/fs07/2016/04/01/5/106_501c5b4ce75596f5a6db226e8a253d65.apk</t>
     </r>
   </si>
   <si>
@@ -178,7 +178,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.zgwanying.wlhyview</t>
+      <t>com.qianfan365.jujinShip00386</t>
     </r>
   </si>
   <si>
@@ -190,7 +190,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>物流货运</t>
+      <t>母婴用品商城</t>
     </r>
   </si>
   <si>
@@ -202,7 +202,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://ftp-new-apk.pconline.com.cn/pub/download/201807/pconline1531035061842.apk?md5=3797ThcQz0DuLQTaMN757w&amp;expires=1672665879</t>
+      <t>https://android-apps.pp.cn/fs08/2019/09/29/11/123_fdecdb5800c6213603de6e650544647c.apk</t>
     </r>
   </si>
   <si>
@@ -214,7 +214,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.bin.jjkxqldy</t>
+      <t>com.example.myfirstmui</t>
     </r>
   </si>
   <si>
@@ -226,7 +226,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>机甲狂袭-枪林弹雨</t>
+      <t>棒棒哒</t>
     </r>
   </si>
   <si>
@@ -238,7 +238,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://storedl1.nearme.com.cn/apk/202103/04/bef3871d4d8bc611fc9a8d331f396101.apk</t>
+      <t>http://b.dxiazaicc.com/apk2/emiaoguanjiav1.0_downcc.com.apk</t>
     </r>
   </si>
   <si>
@@ -250,7 +250,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.smartcity.properties</t>
+      <t>com.evaccinesteward</t>
     </r>
   </si>
   <si>
@@ -262,7 +262,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>嘉瑞社区宝</t>
+      <t>e苗管家</t>
     </r>
   </si>
   <si>
@@ -274,7 +274,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://hot.shouji.360tpcdn.com/150410/af950286728889786e7647d219c73351/com.moon.electromusicsk_2.apk</t>
+      <t>https://android-apps.pp.cn/fs08/2016/04/16/2/106_15efeb36d2d5124b2e6ddb197b620241.apk</t>
     </r>
   </si>
   <si>
@@ -286,7 +286,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.moon.electromusicsk</t>
+      <t>com.biz_package393</t>
     </r>
   </si>
   <si>
@@ -298,7 +298,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Electronic Top Music</t>
+      <t>中海油</t>
     </r>
   </si>
   <si>
@@ -310,7 +310,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://hot.shouji.360tpcdn.com/161215/d9741bb92570f595b6d86de60561786e/com.zzy.tjqnzyxy_9.apk</t>
+      <t>https://android-apps.pp.cn/fs06/2016/03/01/5/106_334de597d5dbab06dc882b6f4ef59f32.apk</t>
     </r>
   </si>
   <si>
@@ -322,7 +322,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.zzy.tjqnzyxy</t>
+      <t>com.dns.portals_package2848</t>
     </r>
   </si>
   <si>
@@ -334,7 +334,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>天津青年学院即时通</t>
+      <t>北京食品</t>
     </r>
   </si>
   <si>
@@ -346,7 +346,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>待填写</t>
+      <t>https://android-apps.pp.cn/fs04/2016/03/07/7/106_0dc42e5eb42ba2b34b9f0e21beccc804.apk</t>
     </r>
   </si>
   <si>
@@ -358,7 +358,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>com.vlife.wallpaper.res.number693</t>
+      <t>com.dns.portals_package2577</t>
     </r>
   </si>
   <si>
@@ -370,80 +370,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>妖娆的月亮LWP</t>
+      <t>硫</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://android-apps.pp.cn/fs08/2016/04/26/3/2_929099191b0a120af5362e1ff26b95d3.apk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>com.qf365.MobileArk00076</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中华电信</t>
-    </r>
-  </si>
-  <si>
-    <t>https://ftp-new-apk.pconline.com.cn/pub/download/201010/pconline1482683508488.apk?md5=_LcieUpRpVx7MdwBvk93KQ&amp;expires=1672664640</t>
-  </si>
-  <si>
-    <t>com.game.monsterwar</t>
-  </si>
-  <si>
-    <t>战狼部落</t>
-  </si>
-  <si>
-    <t>http://hot.shouji.360tpcdn.com/140226/34f7c215a236a047dd6eee8236b2aa76/com.zgwanying.rzview_1.apk</t>
-  </si>
-  <si>
-    <t>com.zgwanying.rzview</t>
-  </si>
-  <si>
-    <t>中小企业融资</t>
-  </si>
-  <si>
-    <t>http://dd.myapp.com/sjy.00004/16891/apk/8E73C5CE1FBDDD7B4908FDAA1F4886F5.apk?fsname=com.ymr.user_11.0_11.apk</t>
-  </si>
-  <si>
-    <t>com.ymr.user</t>
-  </si>
-  <si>
-    <t>悠美人</t>
-  </si>
-  <si>
-    <t>http://hot.shouji.360tpcdn.com/140314/3d0be36b84235d212f5efed34ee9a77b/com.qf365.Srp_srp00124_2.apk</t>
-  </si>
-  <si>
-    <t>com.qf365.Srp_srp00124</t>
-  </si>
-  <si>
-    <t>电力科技</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1039,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1642,10 +1570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1691,9 +1619,9 @@
         <v>9</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
@@ -1706,10 +1634,10 @@
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
@@ -1722,10 +1650,10 @@
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
@@ -1738,10 +1666,10 @@
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
@@ -1754,10 +1682,10 @@
       <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
@@ -1770,10 +1698,10 @@
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
@@ -1786,10 +1714,10 @@
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
@@ -1802,10 +1730,10 @@
       <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
@@ -1818,91 +1746,1387 @@
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="7"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="7"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="7"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="7"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="7"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="7"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="7"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="7"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="7"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="7"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="7"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="7"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="7"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="7"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
